--- a/step8_relabel/sample_selected.xlsx
+++ b/step8_relabel/sample_selected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanlin/Documents/GitHub/bat_coronavirus/step8_relabel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanlin/Documents/GitHub/aPhyloGeo.sm/step8_relabel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BBAD43BC-5BC4-4741-AF76-33E24C91B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD402E17-1125-AD47-8F6D-1DE7A6070532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="500" windowWidth="27620" windowHeight="16940"/>
+    <workbookView xWindow="-3780" yWindow="-20620" windowWidth="29280" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_selected" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="213">
   <si>
     <t>Strain</t>
   </si>
@@ -650,9 +650,6 @@
   </si>
   <si>
     <t>ATO98205</t>
-  </si>
-  <si>
-    <t>v_collection_year</t>
   </si>
   <si>
     <t>Reference2</t>
@@ -667,7 +664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1154,10 +1151,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1218,20 +1214,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K48" totalsRowShown="0">
-  <autoFilter ref="A1:K48"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Strain"/>
-    <tableColumn id="2" name="V_Accession_full"/>
-    <tableColumn id="10" name="v_collection_year"/>
-    <tableColumn id="3" name="V_FullSeq_length"/>
-    <tableColumn id="4" name="ORF1ab"/>
-    <tableColumn id="5" name="spike"/>
-    <tableColumn id="6" name="Host"/>
-    <tableColumn id="7" name="Host_Accession"/>
-    <tableColumn id="8" name="Cytb_Length"/>
-    <tableColumn id="9" name="Reference"/>
-    <tableColumn id="11" name="Reference2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J48" totalsRowShown="0">
+  <autoFilter ref="A1:J48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J48">
+    <sortCondition ref="A1:A48"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strain"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="V_Accession_full"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="V_FullSeq_length"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ORF1ab"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="spike"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Host"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Host_Accession"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cytb_Length"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reference"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Reference2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1533,25 +1531,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1559,450 +1557,414 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>210</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>29688</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>1140</v>
+      </c>
+      <c r="J2" s="1">
+        <v>28384506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>29667</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>1140</v>
+      </c>
+      <c r="I3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="1">
+        <v>28384506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>29276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>1140</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20686038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5">
+        <v>30290</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>1140</v>
+      </c>
+      <c r="I5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>29741</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6">
+        <v>1140</v>
+      </c>
+      <c r="I6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>2011</v>
-      </c>
-      <c r="D2">
+      <c r="C7">
         <v>28310</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
-        <v>1140</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H7">
+        <v>1140</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>28765</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>1140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>28758</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1140</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>28735</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>1140</v>
+      </c>
+      <c r="I10" s="1">
+        <v>26262818</v>
+      </c>
+      <c r="J10" s="1">
+        <v>27125516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>28755</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>1140</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>2012</v>
-      </c>
-      <c r="D3">
+      <c r="C12">
         <v>28311</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I3">
-        <v>1140</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H12">
+        <v>1140</v>
+      </c>
+      <c r="I12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>2013</v>
-      </c>
-      <c r="D4">
-        <v>28735</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>1140</v>
-      </c>
-      <c r="J4" s="1">
-        <v>26262818</v>
-      </c>
-      <c r="K4" s="1">
-        <v>27125516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>2013</v>
-      </c>
-      <c r="D5">
-        <v>28755</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>1140</v>
-      </c>
-      <c r="J5" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>29161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>1140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>29161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>1140</v>
+      </c>
+      <c r="I14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>2012</v>
-      </c>
-      <c r="D6">
-        <v>28758</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>1140</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>2012</v>
-      </c>
-      <c r="D7">
-        <v>28765</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>1140</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>2006</v>
-      </c>
-      <c r="D8">
-        <v>29059</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9">
-        <v>2013</v>
-      </c>
-      <c r="D9">
-        <v>29142</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9">
-        <v>1140</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>2013</v>
-      </c>
-      <c r="D10">
-        <v>29161</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10">
-        <v>1140</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <v>2013</v>
-      </c>
-      <c r="D11">
-        <v>29161</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11">
-        <v>1140</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>2008</v>
-      </c>
-      <c r="D12">
-        <v>29276</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12">
-        <v>1140</v>
-      </c>
-      <c r="K12" s="1">
-        <v>20686038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13">
-        <v>2011</v>
-      </c>
-      <c r="D13">
-        <v>29484</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13">
-        <v>1140</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14">
-        <v>2013</v>
-      </c>
-      <c r="D14">
-        <v>29658</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14">
-        <v>1140</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2010,1029 +1972,981 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>2013</v>
-      </c>
-      <c r="D15">
         <v>29658</v>
       </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
       <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>1140</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>29658</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E16" t="s">
         <v>66</v>
       </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15">
-        <v>1140</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <v>1140</v>
+      </c>
+      <c r="I16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16">
-        <v>2013</v>
-      </c>
-      <c r="D16">
-        <v>29667</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16">
-        <v>1140</v>
-      </c>
-      <c r="J16" t="s">
-        <v>213</v>
-      </c>
-      <c r="K16" s="1">
-        <v>28384506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>29142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>1140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18">
+        <v>29728</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>29695</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19">
+        <v>1140</v>
+      </c>
+      <c r="J19" s="1">
+        <v>20071579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>29695</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20">
+        <v>1140</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20071579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21">
+        <v>29704</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <v>1140</v>
+      </c>
+      <c r="I21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="1">
+        <v>20071579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D17">
+      <c r="C22">
         <v>29677</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17">
-        <v>1140</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22">
+        <v>1140</v>
+      </c>
+      <c r="J22" s="1">
         <v>20071579</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>29687</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23">
+        <v>1140</v>
+      </c>
+      <c r="J23" s="1">
+        <v>16169905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>29711</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <v>1140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="1">
+        <v>16169905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>29704</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <v>1140</v>
+      </c>
+      <c r="J25" s="1">
+        <v>20071579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>29704</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26">
+        <v>1140</v>
+      </c>
+      <c r="J26" s="1">
+        <v>20071579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27">
+        <v>29704</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>1140</v>
+      </c>
+      <c r="J27" s="1">
+        <v>20071579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28">
+        <v>29716</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>1140</v>
+      </c>
+      <c r="I28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D18">
+      <c r="C29">
         <v>29681</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E29" t="s">
         <v>78</v>
       </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18">
-        <v>1140</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29">
+        <v>1140</v>
+      </c>
+      <c r="J29" s="1">
         <v>20071579</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D19">
-        <v>29687</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19">
-        <v>1140</v>
-      </c>
-      <c r="K19" s="1">
-        <v>16169905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20">
-        <v>2013</v>
-      </c>
-      <c r="D20">
-        <v>29688</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20">
-        <v>1140</v>
-      </c>
-      <c r="K20" s="1">
-        <v>28384506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D21">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
         <v>29695</v>
       </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21">
-        <v>1140</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30">
+        <v>1140</v>
+      </c>
+      <c r="J30" s="1">
         <v>20071579</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D22">
-        <v>29695</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22">
-        <v>1140</v>
-      </c>
-      <c r="K22" s="1">
-        <v>20071579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D23">
-        <v>29695</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23">
-        <v>1140</v>
-      </c>
-      <c r="K23" s="1">
-        <v>20071579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D24">
-        <v>29704</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24">
-        <v>1140</v>
-      </c>
-      <c r="K24" s="1">
-        <v>20071579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D25">
-        <v>29704</v>
-      </c>
-      <c r="E25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25">
-        <v>1140</v>
-      </c>
-      <c r="K25" s="1">
-        <v>20071579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D26">
-        <v>29704</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26">
-        <v>1140</v>
-      </c>
-      <c r="K26" s="1">
-        <v>20071579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D27">
-        <v>29704</v>
-      </c>
-      <c r="E27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27">
-        <v>1140</v>
-      </c>
-      <c r="J27" t="s">
-        <v>115</v>
-      </c>
-      <c r="K27" s="1">
-        <v>20071579</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D28">
-        <v>29711</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28">
-        <v>1140</v>
-      </c>
-      <c r="J28" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="1">
-        <v>16169905</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>29716</v>
-      </c>
-      <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29">
-        <v>1140</v>
-      </c>
-      <c r="J29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30">
-        <v>29728</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31">
+        <v>29855</v>
+      </c>
+      <c r="D31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31">
+        <v>1140</v>
+      </c>
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32">
+        <v>29749</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>29484</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33">
+        <v>1140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34">
+        <v>29792</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34">
+        <v>1140</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35">
+        <v>29741</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36">
+        <v>29770</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37">
+        <v>29782</v>
+      </c>
+      <c r="D37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37">
+        <v>1140</v>
+      </c>
+      <c r="I37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38">
+        <v>29741</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39">
+        <v>29743</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39">
+        <v>1140</v>
+      </c>
+      <c r="I39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40">
+        <v>29743</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41">
+        <v>30311</v>
+      </c>
+      <c r="D41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42">
+        <v>29059</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43">
+        <v>30307</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <v>1140</v>
+      </c>
+      <c r="I43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44">
+        <v>29769</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44">
+        <v>1140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45">
+        <v>29787</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45">
+        <v>1140</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46">
+        <v>30309</v>
+      </c>
+      <c r="D46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47">
+        <v>29802</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47">
+        <v>1140</v>
+      </c>
+      <c r="I47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B48" t="s">
         <v>130</v>
       </c>
-      <c r="D31">
+      <c r="C48">
         <v>29732</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D48" t="s">
         <v>131</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E48" t="s">
         <v>132</v>
       </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31">
-        <v>1140</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48">
+        <v>1140</v>
+      </c>
+      <c r="I48" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32">
-        <v>29741</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32">
-        <v>1140</v>
-      </c>
-      <c r="J32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33">
-        <v>29741</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34">
-        <v>29741</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35">
-        <v>29743</v>
-      </c>
-      <c r="E35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35">
-        <v>1140</v>
-      </c>
-      <c r="J35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36">
-        <v>29743</v>
-      </c>
-      <c r="E36" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37">
-        <v>29749</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38">
-        <v>29769</v>
-      </c>
-      <c r="E38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38">
-        <v>1140</v>
-      </c>
-      <c r="J38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39">
-        <v>29770</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40">
-        <v>29782</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40">
-        <v>1140</v>
-      </c>
-      <c r="J40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41">
-        <v>29787</v>
-      </c>
-      <c r="E41" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41">
-        <v>1140</v>
-      </c>
-      <c r="J41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42">
-        <v>29792</v>
-      </c>
-      <c r="E42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42">
-        <v>1140</v>
-      </c>
-      <c r="J42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43">
-        <v>29802</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43">
-        <v>1140</v>
-      </c>
-      <c r="J43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44">
-        <v>29855</v>
-      </c>
-      <c r="E44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44">
-        <v>1140</v>
-      </c>
-      <c r="J44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>193</v>
-      </c>
-      <c r="B45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45">
-        <v>30290</v>
-      </c>
-      <c r="E45" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45">
-        <v>1140</v>
-      </c>
-      <c r="J45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46">
-        <v>30307</v>
-      </c>
-      <c r="E46" t="s">
-        <v>200</v>
-      </c>
-      <c r="F46" t="s">
-        <v>201</v>
-      </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46">
-        <v>1140</v>
-      </c>
-      <c r="J46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47">
-        <v>30309</v>
-      </c>
-      <c r="E47" t="s">
-        <v>204</v>
-      </c>
-      <c r="F47" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48">
-        <v>30311</v>
-      </c>
-      <c r="E48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F48" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48">
-        <v>1140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pubmed/26262818"/>
-    <hyperlink ref="K4" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pubmed/27125516"/>
-    <hyperlink ref="K12" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pubmed/20686038"/>
-    <hyperlink ref="K16" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506"/>
-    <hyperlink ref="K17" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K18" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K19" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905"/>
-    <hyperlink ref="K20" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506"/>
-    <hyperlink ref="K21" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K22" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K23" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K24" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K25" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K27" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905"/>
-    <hyperlink ref="K26" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579"/>
-    <hyperlink ref="K28" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905"/>
+    <hyperlink ref="I10" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pubmed/26262818" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J10" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pubmed/27125516" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pubmed/20686038" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J22" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J29" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J23" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J2" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J19" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J30" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J20" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J26" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J27" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J21" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J25" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J24" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/step8_relabel/sample_selected.xlsx
+++ b/step8_relabel/sample_selected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanlin/Documents/GitHub/aPhyloGeo.sm/step8_relabel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD402E17-1125-AD47-8F6D-1DE7A6070532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3F03E-94D6-D44B-90E6-5D3B21AF5A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="-20620" windowWidth="29280" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="-19400" windowWidth="29280" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_selected" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="219">
   <si>
     <t>Strain</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Host</t>
   </si>
   <si>
-    <t>Host_Accession</t>
-  </si>
-  <si>
     <t>Cytb_Length</t>
   </si>
   <si>
@@ -659,6 +656,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Host_Cytb_Accession</t>
+  </si>
+  <si>
+    <t>AFCD62</t>
+  </si>
+  <si>
+    <t>EU420138</t>
+  </si>
+  <si>
+    <t>ACA52163</t>
+  </si>
+  <si>
+    <t>ACA52164</t>
+  </si>
+  <si>
+    <t>Miniopterus magnater</t>
+  </si>
+  <si>
+    <t>ON640726</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1235,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J48" totalsRowShown="0">
   <autoFilter ref="A1:J48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J48">
-    <sortCondition ref="A1:A48"/>
+    <sortCondition ref="F1:F48"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strain"/>
@@ -1226,7 +1244,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ORF1ab"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="spike"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Host"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Host_Accession"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Host_Cytb_Accession"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cytb_Length"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reference"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Reference2"/>
@@ -1534,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,535 +1587,526 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>29688</v>
+        <v>28310</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>1140</v>
       </c>
-      <c r="J2" s="1">
-        <v>28384506</v>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>29667</v>
+        <v>28311</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>1140</v>
       </c>
       <c r="I3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="1">
-        <v>28384506</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>29276</v>
+        <v>28758</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>1140</v>
       </c>
-      <c r="J4" s="1">
-        <v>20686038</v>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>30290</v>
+        <v>28755</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1140</v>
       </c>
       <c r="I5" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>29741</v>
+        <v>28765</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1140</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>28310</v>
+        <v>28735</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
       <c r="H7">
         <v>1140</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
+      <c r="I7" s="1">
+        <v>26262818</v>
+      </c>
+      <c r="J7" s="1">
+        <v>27125516</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="C8">
-        <v>28765</v>
+        <v>28326</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>1140</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="C9">
-        <v>28758</v>
+        <v>29855</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="H9">
         <v>1140</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>28735</v>
+        <v>29276</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>1140</v>
       </c>
-      <c r="I10" s="1">
-        <v>26262818</v>
-      </c>
       <c r="J10" s="1">
-        <v>27125516</v>
+        <v>20686038</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C11">
-        <v>28755</v>
+        <v>29749</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="H11">
         <v>1140</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C12">
-        <v>28311</v>
+        <v>29741</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>1140</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>29161</v>
+        <v>29484</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>1140</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C14">
-        <v>29161</v>
+        <v>29728</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>1140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>29658</v>
+        <v>29687</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>1140</v>
       </c>
-      <c r="I15" t="s">
-        <v>46</v>
+      <c r="J15" s="1">
+        <v>16169905</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C16">
-        <v>29658</v>
+        <v>29711</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16">
         <v>1140</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="J16" s="1">
+        <v>16169905</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>29142</v>
+        <v>29059</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>1140</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C18">
-        <v>29728</v>
+        <v>29704</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>1140</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20071579</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C19">
-        <v>29695</v>
+        <v>29704</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1140</v>
@@ -2108,25 +2117,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C20">
-        <v>29695</v>
+        <v>29704</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1140</v>
@@ -2137,57 +2146,54 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C21">
-        <v>29704</v>
+        <v>29716</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>1140</v>
+      </c>
+      <c r="I21" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21">
-        <v>1140</v>
-      </c>
-      <c r="I21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="1">
-        <v>20071579</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C22">
-        <v>29677</v>
+        <v>29681</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1140</v>
@@ -2198,86 +2204,83 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C23">
-        <v>29687</v>
+        <v>29695</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1140</v>
       </c>
       <c r="J23" s="1">
-        <v>16169905</v>
+        <v>20071579</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>29711</v>
+        <v>29695</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1140</v>
       </c>
-      <c r="I24" t="s">
-        <v>120</v>
-      </c>
       <c r="J24" s="1">
-        <v>16169905</v>
+        <v>20071579</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>29704</v>
+        <v>29695</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>1140</v>
@@ -2288,28 +2291,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>29704</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>1140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
       </c>
       <c r="J26" s="1">
         <v>20071579</v>
@@ -2317,25 +2323,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C27">
-        <v>29704</v>
+        <v>29677</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1140</v>
@@ -2346,607 +2352,616 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C28">
-        <v>29716</v>
+        <v>29787</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1140</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C29">
-        <v>29681</v>
+        <v>29792</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>1140</v>
       </c>
-      <c r="J29" s="1">
-        <v>20071579</v>
+      <c r="I29" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C30">
-        <v>29695</v>
+        <v>30309</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>1140</v>
-      </c>
-      <c r="J30" s="1">
-        <v>20071579</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="C31">
-        <v>29855</v>
+        <v>29658</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>1140</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>29749</v>
+        <v>29161</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>1140</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>29484</v>
+        <v>29161</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>1140</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="C34">
-        <v>29792</v>
+        <v>29142</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>1140</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35">
+        <v>30290</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>1140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
         <v>145</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36">
+        <v>29741</v>
+      </c>
+      <c r="D36" t="s">
         <v>146</v>
       </c>
-      <c r="C35">
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37">
+        <v>29770</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38">
+        <v>29782</v>
+      </c>
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>1140</v>
+      </c>
+      <c r="I38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39">
         <v>29741</v>
       </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>148</v>
       </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36">
-        <v>29770</v>
-      </c>
-      <c r="D36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37">
-        <v>29782</v>
-      </c>
-      <c r="D37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37">
-        <v>1140</v>
-      </c>
-      <c r="I37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38">
-        <v>29741</v>
-      </c>
-      <c r="D38" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
         <v>149</v>
-      </c>
-      <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39">
-        <v>29743</v>
-      </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39">
-        <v>1140</v>
-      </c>
-      <c r="I39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
       </c>
       <c r="C40">
         <v>29743</v>
       </c>
       <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>1140</v>
+      </c>
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41">
+        <v>29743</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" t="s">
         <v>156</v>
       </c>
-      <c r="E40" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" t="s">
         <v>206</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C42">
+        <v>30311</v>
+      </c>
+      <c r="D42" t="s">
         <v>207</v>
       </c>
-      <c r="C41">
-        <v>30311</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E42" t="s">
         <v>208</v>
       </c>
-      <c r="E41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42">
-        <v>29059</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>1140</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
         <v>198</v>
-      </c>
-      <c r="B43" t="s">
-        <v>199</v>
       </c>
       <c r="C43">
         <v>30307</v>
       </c>
       <c r="D43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" t="s">
         <v>200</v>
       </c>
-      <c r="E43" t="s">
-        <v>201</v>
-      </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>1140</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
         <v>161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>162</v>
       </c>
       <c r="C44">
         <v>29769</v>
       </c>
       <c r="D44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" t="s">
         <v>163</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>1140</v>
+      </c>
+      <c r="I44" t="s">
         <v>164</v>
       </c>
-      <c r="F44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44">
-        <v>1140</v>
-      </c>
-      <c r="I44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C45">
-        <v>29787</v>
+        <v>29688</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1140</v>
       </c>
-      <c r="I45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="1">
+        <v>28384506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="C46">
-        <v>30309</v>
+        <v>29667</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>1140</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="1">
+        <v>28384506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
         <v>182</v>
-      </c>
-      <c r="B47" t="s">
-        <v>183</v>
       </c>
       <c r="C47">
         <v>29802</v>
       </c>
       <c r="D47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" t="s">
         <v>184</v>
       </c>
-      <c r="E47" t="s">
-        <v>185</v>
-      </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>1140</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
         <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>130</v>
       </c>
       <c r="C48">
         <v>29732</v>
       </c>
       <c r="D48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>1140</v>
+      </c>
+      <c r="I48" t="s">
         <v>132</v>
-      </c>
-      <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48">
-        <v>1140</v>
-      </c>
-      <c r="I48" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pubmed/26262818" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J10" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pubmed/27125516" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pubmed/20686038" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J3" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J22" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J29" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J23" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J2" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J19" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J30" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J20" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J26" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J27" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J21" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J25" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J24" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I7" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pubmed/26262818" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J7" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pubmed/27125516" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J10" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pubmed/20686038" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J46" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J27" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J22" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J15" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J45" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pubmed/28384506" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J24" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J23" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J25" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J19" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J20" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J26" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J18" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pubmed/20071579" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J16" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pubmed/16169905" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
